--- a/imhr/dist/roi/output/bounds.xlsx
+++ b/imhr/dist/roi/output/bounds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
   <si>
     <t>x0</t>
   </si>
@@ -46,12 +46,6 @@
     <t>feature</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>AM_201</t>
   </si>
   <si>
@@ -116,105 +110,6 @@
   </si>
   <si>
     <t>rightear</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>AM_201roi1center</t>
-  </si>
-  <si>
-    <t>AM_201roi2center</t>
-  </si>
-  <si>
-    <t>AM_201roi3center</t>
-  </si>
-  <si>
-    <t>AM_201roi4center</t>
-  </si>
-  <si>
-    <t>AM_201roi5center</t>
-  </si>
-  <si>
-    <t>AM_201roi6center</t>
-  </si>
-  <si>
-    <t>AM_201roi7center</t>
-  </si>
-  <si>
-    <t>AM_201roi8center</t>
-  </si>
-  <si>
-    <t>AM_203roi1center</t>
-  </si>
-  <si>
-    <t>AM_203roi2center</t>
-  </si>
-  <si>
-    <t>AM_203roi3center</t>
-  </si>
-  <si>
-    <t>AM_203roi4center</t>
-  </si>
-  <si>
-    <t>AM_203roi5center</t>
-  </si>
-  <si>
-    <t>AM_203roi6center</t>
-  </si>
-  <si>
-    <t>AM_203roi7center</t>
-  </si>
-  <si>
-    <t>AM_203roi8center</t>
-  </si>
-  <si>
-    <t>AM_204roi1center</t>
-  </si>
-  <si>
-    <t>AM_204roi2center</t>
-  </si>
-  <si>
-    <t>AM_204roi3center</t>
-  </si>
-  <si>
-    <t>AM_204roi4center</t>
-  </si>
-  <si>
-    <t>AM_204roi5center</t>
-  </si>
-  <si>
-    <t>AM_204roi6center</t>
-  </si>
-  <si>
-    <t>AM_204roi7center</t>
-  </si>
-  <si>
-    <t>AM_204roi8center</t>
-  </si>
-  <si>
-    <t>AM_223roi1center</t>
-  </si>
-  <si>
-    <t>AM_223roi2center</t>
-  </si>
-  <si>
-    <t>AM_223roi3center</t>
-  </si>
-  <si>
-    <t>AM_223roi4center</t>
-  </si>
-  <si>
-    <t>AM_223roi5center</t>
-  </si>
-  <si>
-    <t>AM_223roi6center</t>
-  </si>
-  <si>
-    <t>AM_223roi7center</t>
-  </si>
-  <si>
-    <t>AM_223roi8center</t>
   </si>
 </sst>
 </file>
@@ -572,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,14 +504,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>937</v>
       </c>
@@ -630,31 +519,25 @@
         <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1118</v>
       </c>
@@ -668,31 +551,25 @@
         <v>420</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1016</v>
       </c>
@@ -706,31 +583,25 @@
         <v>565</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>880</v>
       </c>
@@ -744,31 +615,25 @@
         <v>670</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1114</v>
       </c>
@@ -782,31 +647,25 @@
         <v>762</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1109</v>
       </c>
@@ -820,31 +679,25 @@
         <v>307</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>783</v>
       </c>
@@ -858,31 +711,25 @@
         <v>532</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1207</v>
       </c>
@@ -896,31 +743,25 @@
         <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>946</v>
       </c>
@@ -934,31 +775,25 @@
         <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>976</v>
       </c>
@@ -972,31 +807,25 @@
         <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>899</v>
       </c>
@@ -1010,31 +839,25 @@
         <v>542</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>876</v>
       </c>
@@ -1048,31 +871,25 @@
         <v>658</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>1040</v>
       </c>
@@ -1086,31 +903,25 @@
         <v>759</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>774</v>
       </c>
@@ -1124,31 +935,25 @@
         <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>766</v>
       </c>
@@ -1162,31 +967,25 @@
         <v>474</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1213</v>
       </c>
@@ -1200,31 +999,25 @@
         <v>462</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>778</v>
       </c>
@@ -1238,31 +1031,25 @@
         <v>425</v>
       </c>
       <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="I18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>975</v>
       </c>
@@ -1276,31 +1063,25 @@
         <v>421</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>886</v>
       </c>
@@ -1314,31 +1095,25 @@
         <v>562</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>862</v>
       </c>
@@ -1352,31 +1127,25 @@
         <v>649</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>874</v>
       </c>
@@ -1390,31 +1159,25 @@
         <v>755</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>1137</v>
       </c>
@@ -1428,31 +1191,25 @@
         <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>777</v>
       </c>
@@ -1466,31 +1223,25 @@
         <v>483</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>1217</v>
       </c>
@@ -1504,31 +1255,25 @@
         <v>483</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>944</v>
       </c>
@@ -1542,31 +1287,25 @@
         <v>406</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
         <v>24</v>
       </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>1132</v>
       </c>
@@ -1580,31 +1319,25 @@
         <v>405</v>
       </c>
       <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
         <v>25</v>
       </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>899</v>
       </c>
@@ -1618,31 +1351,25 @@
         <v>553</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1038</v>
       </c>
@@ -1656,31 +1383,25 @@
         <v>670</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1053</v>
       </c>
@@ -1694,31 +1415,25 @@
         <v>776</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1150</v>
       </c>
@@ -1732,31 +1447,25 @@
         <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G31">
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>695</v>
       </c>
@@ -1770,31 +1479,25 @@
         <v>484</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G32">
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1229</v>
       </c>
@@ -1808,28 +1511,22 @@
         <v>483</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/imhr/dist/roi/output/bounds.xlsx
+++ b/imhr/dist/roi/output/bounds.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,81 +409,36 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>valence</t>
+          <t>race</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>meanvalence</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>meanarousal</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>resolution</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>position</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>uuid</t>
+          <t>feature</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>448</v>
+        <v>937</v>
       </c>
       <c r="B2" t="n">
-        <v>156</v>
+        <v>554</v>
       </c>
       <c r="C2" t="n">
-        <v>588</v>
+        <v>792</v>
       </c>
       <c r="D2" t="n">
-        <v>648</v>
+        <v>422</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>roi1</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -491,86 +446,41 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7.769999981</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4.679999828</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>25501center</t>
+          <t>lefteye</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>499</v>
+        <v>1118</v>
       </c>
       <c r="B3" t="n">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="C3" t="n">
-        <v>504</v>
+        <v>973</v>
       </c>
       <c r="D3" t="n">
-        <v>785</v>
+        <v>420</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>roi2</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -578,758 +488,1277 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7.769999981</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4.679999828</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>25502center</t>
+          <t>righteye</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>848</v>
+        <v>1016</v>
       </c>
       <c r="B4" t="n">
-        <v>703</v>
+        <v>650</v>
       </c>
       <c r="C4" t="n">
-        <v>832</v>
+        <v>892</v>
       </c>
       <c r="D4" t="n">
-        <v>713</v>
+        <v>565</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>roi3</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.039999962</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>5.849999905</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>throw</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>rock</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>protest</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>26911center</t>
+          <t>nose</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="B5" t="n">
-        <v>371</v>
+        <v>756</v>
       </c>
       <c r="C5" t="n">
-        <v>945</v>
+        <v>1039</v>
       </c>
       <c r="D5" t="n">
-        <v>383</v>
+        <v>670</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>roi4</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.039999962</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>5.849999905</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>rock</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>protest</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>26912center</t>
+          <t>mouth</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>635</v>
+        <v>1114</v>
       </c>
       <c r="B6" t="n">
-        <v>575</v>
+        <v>862</v>
       </c>
       <c r="C6" t="n">
-        <v>704</v>
+        <v>818</v>
       </c>
       <c r="D6" t="n">
-        <v>610</v>
+        <v>762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>roi5</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.179999828</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>5.519999981</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>kiss</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>46401center</t>
+          <t>chin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1052</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="n">
-        <v>743</v>
+        <v>407</v>
       </c>
       <c r="C7" t="n">
-        <v>1032</v>
+        <v>801</v>
       </c>
       <c r="D7" t="n">
-        <v>782</v>
+        <v>307</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>roi6</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7.179999828</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>5.519999981</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>46402center</t>
+          <t>forehead</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>610</v>
+        <v>783</v>
       </c>
       <c r="B8" t="n">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="C8" t="n">
-        <v>539</v>
+        <v>704</v>
       </c>
       <c r="D8" t="n">
-        <v>654</v>
+        <v>532</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>roi7</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7.179999828</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>5.519999981</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>hands</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>couple</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>46403center</t>
+          <t>leftear</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>738</v>
+        <v>1207</v>
       </c>
       <c r="B9" t="n">
-        <v>158</v>
+        <v>649</v>
       </c>
       <c r="C9" t="n">
-        <v>718</v>
+        <v>1144</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>494</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9421</t>
+          <t>AM_201</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>roi8</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.210000038</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>5.039999962</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>cry</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>helmet</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>94211center</t>
+          <t>rightear</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1088</v>
+        <v>938</v>
       </c>
       <c r="B10" t="n">
-        <v>366</v>
+        <v>524</v>
       </c>
       <c r="C10" t="n">
-        <v>999</v>
+        <v>785</v>
       </c>
       <c r="D10" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9421</t>
+          <t>AM_203</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>roi1</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FREEHAND</t>
+          <t>RECTANGLE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.210000038</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>5.039999962</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>arm</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>splint</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>94212center</t>
+          <t>lefteye</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1276</v>
+        <v>1125</v>
       </c>
       <c r="B11" t="n">
-        <v>226</v>
+        <v>525</v>
       </c>
       <c r="C11" t="n">
-        <v>1240</v>
+        <v>976</v>
       </c>
       <c r="D11" t="n">
-        <v>291</v>
+        <v>409</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9421</t>
+          <t>AM_203</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>roi2</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>righteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B12" t="n">
+        <v>632</v>
+      </c>
+      <c r="C12" t="n">
+        <v>899</v>
+      </c>
+      <c r="D12" t="n">
+        <v>552</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>roi3</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>FREEHAND</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2.210000038</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>5.039999962</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>bandage</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>(1024, 768)</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>94213center</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nose</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B13" t="n">
+        <v>735</v>
+      </c>
+      <c r="C13" t="n">
+        <v>876</v>
+      </c>
+      <c r="D13" t="n">
+        <v>661</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>roi4</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B14" t="n">
+        <v>837</v>
+      </c>
+      <c r="C14" t="n">
+        <v>862</v>
+      </c>
+      <c r="D14" t="n">
+        <v>759</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>roi5</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>chin</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B15" t="n">
+        <v>382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>778</v>
+      </c>
+      <c r="D15" t="n">
+        <v>259</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>roi6</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>forehead</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>766</v>
+      </c>
+      <c r="B16" t="n">
+        <v>637</v>
+      </c>
+      <c r="C16" t="n">
+        <v>693</v>
+      </c>
+      <c r="D16" t="n">
+        <v>474</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>roi7</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>leftear</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B17" t="n">
+        <v>634</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1147</v>
+      </c>
+      <c r="D17" t="n">
+        <v>462</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AM_203</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>roi8</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>rightear</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>928</v>
+      </c>
+      <c r="B18" t="n">
+        <v>538</v>
+      </c>
+      <c r="C18" t="n">
+        <v>778</v>
+      </c>
+      <c r="D18" t="n">
+        <v>425</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>roi1</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>lefteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B19" t="n">
+        <v>535</v>
+      </c>
+      <c r="C19" t="n">
+        <v>975</v>
+      </c>
+      <c r="D19" t="n">
+        <v>427</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>roi2</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>righteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B20" t="n">
+        <v>633</v>
+      </c>
+      <c r="C20" t="n">
+        <v>886</v>
+      </c>
+      <c r="D20" t="n">
+        <v>567</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>roi3</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>nose</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>862</v>
+      </c>
+      <c r="B21" t="n">
+        <v>735</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D21" t="n">
+        <v>649</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>roi4</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>874</v>
+      </c>
+      <c r="B22" t="n">
+        <v>831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D22" t="n">
+        <v>755</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>roi5</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>chin</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B23" t="n">
+        <v>410</v>
+      </c>
+      <c r="C23" t="n">
+        <v>776</v>
+      </c>
+      <c r="D23" t="n">
+        <v>262</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>roi6</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>forehead</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>766</v>
+      </c>
+      <c r="B24" t="n">
+        <v>658</v>
+      </c>
+      <c r="C24" t="n">
+        <v>700</v>
+      </c>
+      <c r="D24" t="n">
+        <v>483</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>roi7</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>leftear</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B25" t="n">
+        <v>644</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1148</v>
+      </c>
+      <c r="D25" t="n">
+        <v>483</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AM_204</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>roi8</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>rightear</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>944</v>
+      </c>
+      <c r="B26" t="n">
+        <v>531</v>
+      </c>
+      <c r="C26" t="n">
+        <v>792</v>
+      </c>
+      <c r="D26" t="n">
+        <v>406</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>roi1</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>lefteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B27" t="n">
+        <v>524</v>
+      </c>
+      <c r="C27" t="n">
+        <v>983</v>
+      </c>
+      <c r="D27" t="n">
+        <v>405</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>roi2</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>righteye</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B28" t="n">
+        <v>641</v>
+      </c>
+      <c r="C28" t="n">
+        <v>906</v>
+      </c>
+      <c r="D28" t="n">
+        <v>562</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>roi3</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>nose</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>741</v>
+      </c>
+      <c r="C29" t="n">
+        <v>896</v>
+      </c>
+      <c r="D29" t="n">
+        <v>670</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>roi4</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>mouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B30" t="n">
+        <v>847</v>
+      </c>
+      <c r="C30" t="n">
+        <v>875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>776</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>roi5</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>chin</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>386</v>
+      </c>
+      <c r="C31" t="n">
+        <v>778</v>
+      </c>
+      <c r="D31" t="n">
+        <v>275</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>roi6</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>forehead</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>775</v>
+      </c>
+      <c r="B32" t="n">
+        <v>641</v>
+      </c>
+      <c r="C32" t="n">
+        <v>695</v>
+      </c>
+      <c r="D32" t="n">
+        <v>488</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>roi7</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>leftear</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B33" t="n">
+        <v>638</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1145</v>
+      </c>
+      <c r="D33" t="n">
+        <v>483</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AM_223</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>roi8</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>8</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>RECTANGLE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>rightear</t>
         </is>
       </c>
     </row>
